--- a/occurrences_algo_pose_estimation.xlsx
+++ b/occurrences_algo_pose_estimation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/631fab7c83f2505c/Documentos/GitHub/Artificial_markers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6EDC08E-5C35-4CF3-A5CF-E5D37F6B3863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{B6EDC08E-5C35-4CF3-A5CF-E5D37F6B3863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30FCB4EC-122D-436C-A521-E021D655BE3E}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{2B066F22-322D-4408-8EAC-D3F68A3108EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2B066F22-322D-4408-8EAC-D3F68A3108EC}"/>
   </bookViews>
   <sheets>
     <sheet name="occurrences_algo_pose_estimatio" sheetId="1" r:id="rId1"/>
@@ -933,7 +933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E6AB24-88EC-413C-B14F-E336EA7B4046}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -983,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1047,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>2</v>
